--- a/Code/iteration.xlsx
+++ b/Code/iteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rangeetpan/Documents/Semester/Fall 2019/COMS 641/641/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC65023-C344-594D-8AF9-51EB9B567B62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F5C50-8FB0-644E-A690-88FD56AE3D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{3D32B5A0-7B6D-5547-A689-7BF89BA31570}"/>
   </bookViews>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05214FB1-EC06-5846-90BE-CE2D85861BB1}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52:O52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3025,6 +3025,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3032,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978353B2-D0BB-F241-95CF-E63E0378D27F}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G21" sqref="G1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3154,7 +3155,7 @@
         <v>0.88806664999999996</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E52" si="0">D3-C3</f>
+        <f t="shared" ref="E3:G52" si="0">D3-C3</f>
         <v>-4.0833500000000411E-3</v>
       </c>
       <c r="G3">
@@ -5633,6 +5634,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5641,7 +5643,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P52"/>
+      <selection activeCell="Q2" sqref="Q2:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8238,6 +8240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8245,8 +8248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898B37C5-B8D3-D345-8331-98454AE4C320}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10843,5 +10846,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>